--- a/server/doc/informeCalidad/FORMATO INFORME NARANJA.xlsx
+++ b/server/doc/informeCalidad/FORMATO INFORME NARANJA.xlsx
@@ -10,7 +10,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="DyeZ2LGGKYwXkVdl13/2pvXTIg4taFafmx+gAC1iyZI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="v0lM71byyS3q1UVqg8TIMqLmBTSNNvasRgpLle/9fP8="/>
     </ext>
   </extLst>
 </workbook>
@@ -3940,14 +3940,16 @@
       <c r="Z71" s="6"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
+      <c r="A72" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="99"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="100"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -3968,14 +3970,12 @@
       <c r="Z72" s="6"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="98" t="s">
-        <v>77</v>
-      </c>
+      <c r="A73" s="101"/>
       <c r="B73" s="99"/>
       <c r="C73" s="99"/>
       <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
+      <c r="E73" s="100"/>
+      <c r="F73" s="101"/>
       <c r="G73" s="99"/>
       <c r="H73" s="100"/>
       <c r="I73" s="6"/>
@@ -3998,14 +3998,10 @@
       <c r="Z73" s="6"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="101"/>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="100"/>
-      <c r="F74" s="101"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="100"/>
+      <c r="A74" s="102"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="102"/>
+      <c r="H74" s="103"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
@@ -4194,10 +4190,14 @@
       <c r="Z81" s="6"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="102"/>
-      <c r="E82" s="103"/>
-      <c r="F82" s="102"/>
-      <c r="H82" s="103"/>
+      <c r="A82" s="104"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="104"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="105"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
@@ -4218,14 +4218,14 @@
       <c r="Z82" s="6"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="104"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="105"/>
-      <c r="F83" s="104"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="105"/>
+      <c r="A83" s="106"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="77"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="106"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="78"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -4245,15 +4245,15 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="106"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="106"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="78"/>
+    <row r="84" ht="15.0" customHeight="1">
+      <c r="A84" s="101"/>
+      <c r="B84" s="99"/>
+      <c r="C84" s="99"/>
+      <c r="D84" s="99"/>
+      <c r="E84" s="100"/>
+      <c r="F84" s="101"/>
+      <c r="G84" s="99"/>
+      <c r="H84" s="100"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
@@ -4274,14 +4274,10 @@
       <c r="Z84" s="6"/>
     </row>
     <row r="85" ht="15.0" customHeight="1">
-      <c r="A85" s="101"/>
-      <c r="B85" s="99"/>
-      <c r="C85" s="99"/>
-      <c r="D85" s="99"/>
-      <c r="E85" s="100"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="99"/>
-      <c r="H85" s="100"/>
+      <c r="A85" s="102"/>
+      <c r="E85" s="103"/>
+      <c r="F85" s="102"/>
+      <c r="H85" s="103"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -4397,7 +4393,7 @@
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
     </row>
-    <row r="90" ht="15.0" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="102"/>
       <c r="E90" s="103"/>
       <c r="F90" s="102"/>
@@ -4470,10 +4466,14 @@
       <c r="Z92" s="6"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="102"/>
-      <c r="E93" s="103"/>
-      <c r="F93" s="102"/>
-      <c r="H93" s="103"/>
+      <c r="A93" s="104"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="105"/>
+      <c r="F93" s="104"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="105"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -4494,14 +4494,14 @@
       <c r="Z93" s="6"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="104"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="105"/>
-      <c r="F94" s="104"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="105"/>
+      <c r="A94" s="106"/>
+      <c r="B94" s="77"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="106"/>
+      <c r="G94" s="77"/>
+      <c r="H94" s="78"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
@@ -4521,15 +4521,15 @@
       <c r="Y94" s="6"/>
       <c r="Z94" s="6"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="106"/>
-      <c r="B95" s="77"/>
-      <c r="C95" s="77"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="78"/>
-      <c r="F95" s="106"/>
-      <c r="G95" s="77"/>
-      <c r="H95" s="78"/>
+    <row r="95" ht="15.0" customHeight="1">
+      <c r="A95" s="101"/>
+      <c r="B95" s="99"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="100"/>
+      <c r="F95" s="101"/>
+      <c r="G95" s="99"/>
+      <c r="H95" s="100"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -4550,14 +4550,10 @@
       <c r="Z95" s="6"/>
     </row>
     <row r="96" ht="15.0" customHeight="1">
-      <c r="A96" s="101"/>
-      <c r="B96" s="99"/>
-      <c r="C96" s="99"/>
-      <c r="D96" s="99"/>
-      <c r="E96" s="100"/>
-      <c r="F96" s="101"/>
-      <c r="G96" s="99"/>
-      <c r="H96" s="100"/>
+      <c r="A96" s="102"/>
+      <c r="E96" s="103"/>
+      <c r="F96" s="102"/>
+      <c r="H96" s="103"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
@@ -4673,7 +4669,7 @@
       <c r="Y100" s="6"/>
       <c r="Z100" s="6"/>
     </row>
-    <row r="101" ht="15.0" customHeight="1">
+    <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="102"/>
       <c r="E101" s="103"/>
       <c r="F101" s="102"/>
@@ -4746,10 +4742,14 @@
       <c r="Z103" s="6"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="102"/>
-      <c r="E104" s="103"/>
-      <c r="F104" s="102"/>
-      <c r="H104" s="103"/>
+      <c r="A104" s="104"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="104"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="105"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
@@ -4770,14 +4770,14 @@
       <c r="Z104" s="6"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="104"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="105"/>
-      <c r="F105" s="104"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="105"/>
+      <c r="A105" s="106"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="78"/>
+      <c r="F105" s="106"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="78"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
@@ -4798,14 +4798,14 @@
       <c r="Z105" s="6"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="106"/>
-      <c r="B106" s="77"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="78"/>
-      <c r="F106" s="106"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="78"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
@@ -29829,34 +29829,6 @@
       <c r="Y999" s="6"/>
       <c r="Z999" s="6"/>
     </row>
-    <row r="1000" ht="14.25" customHeight="1">
-      <c r="A1000" s="6"/>
-      <c r="B1000" s="6"/>
-      <c r="C1000" s="6"/>
-      <c r="D1000" s="6"/>
-      <c r="E1000" s="6"/>
-      <c r="F1000" s="6"/>
-      <c r="G1000" s="6"/>
-      <c r="H1000" s="6"/>
-      <c r="I1000" s="6"/>
-      <c r="J1000" s="6"/>
-      <c r="K1000" s="6"/>
-      <c r="L1000" s="6"/>
-      <c r="M1000" s="6"/>
-      <c r="N1000" s="6"/>
-      <c r="O1000" s="6"/>
-      <c r="P1000" s="6"/>
-      <c r="Q1000" s="6"/>
-      <c r="R1000" s="6"/>
-      <c r="S1000" s="6"/>
-      <c r="T1000" s="6"/>
-      <c r="U1000" s="6"/>
-      <c r="V1000" s="6"/>
-      <c r="W1000" s="6"/>
-      <c r="X1000" s="6"/>
-      <c r="Y1000" s="6"/>
-      <c r="Z1000" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="86">
     <mergeCell ref="E58:H58"/>
@@ -29881,21 +29853,21 @@
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A85:E94"/>
-    <mergeCell ref="F85:H94"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="A96:E105"/>
-    <mergeCell ref="F96:H105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="A84:E93"/>
+    <mergeCell ref="F84:H93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="A95:E104"/>
+    <mergeCell ref="F95:H104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="F105:H105"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A74:E83"/>
-    <mergeCell ref="F74:H83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A73:E82"/>
+    <mergeCell ref="F73:H82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="F83:H83"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:G4"/>
     <mergeCell ref="H1:H4"/>
